--- a/3 Output/Zimbabwe EC - Descriptive Stats.xlsx
+++ b/3 Output/Zimbabwe EC - Descriptive Stats.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>ec6</t>
   </si>
@@ -171,6 +171,156 @@
   </si>
   <si>
     <t>Variable name</t>
+  </si>
+  <si>
+    <t>Cronbachs Alpha</t>
+  </si>
+  <si>
+    <t>Number of Observations</t>
+  </si>
+  <si>
+    <t>ec6</t>
+  </si>
+  <si>
+    <t>Can (name) identify or name at least ten letters of the alphabet?</t>
+  </si>
+  <si>
+    <t>ec7</t>
+  </si>
+  <si>
+    <t>Can (name) read at least four simple, popular words?</t>
+  </si>
+  <si>
+    <t>ec8</t>
+  </si>
+  <si>
+    <t>Does (name) know the name and recognize the symbol of all numbers from 1 to 10?</t>
+  </si>
+  <si>
+    <t>ec9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can (name) pick up a small object with two fingers, like a stick or a rock from </t>
+  </si>
+  <si>
+    <t>ec10</t>
+  </si>
+  <si>
+    <t>Is (name) sometimes too sick to play?</t>
+  </si>
+  <si>
+    <t>ec11</t>
+  </si>
+  <si>
+    <t>Does (name) follow simple directions on how to do something correctly?</t>
+  </si>
+  <si>
+    <t>ec12</t>
+  </si>
+  <si>
+    <t>When given something to do, is (name) able to do it independently?</t>
+  </si>
+  <si>
+    <t>ec13</t>
+  </si>
+  <si>
+    <t>Does (name) get along well with other children?</t>
+  </si>
+  <si>
+    <t>ec14</t>
+  </si>
+  <si>
+    <t>Does (name) kick, bite, or hit other children or adults?</t>
+  </si>
+  <si>
+    <t>ec15</t>
+  </si>
+  <si>
+    <t>Does (name) get distracted easily?</t>
+  </si>
+  <si>
+    <t>Panel A: Children at 3-years-old</t>
+  </si>
+  <si>
+    <t>Obs.</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Std. Deviation</t>
+  </si>
+  <si>
+    <t>Min.</t>
+  </si>
+  <si>
+    <t>Max.</t>
+  </si>
+  <si>
+    <t>ec6</t>
+  </si>
+  <si>
+    <t>Can (name) identify or name at least ten letters of the alphabet?</t>
+  </si>
+  <si>
+    <t>ec7</t>
+  </si>
+  <si>
+    <t>Can (name) read at least four simple, popular words?</t>
+  </si>
+  <si>
+    <t>ec8</t>
+  </si>
+  <si>
+    <t>Does (name) know the name and recognize the symbol of all numbers from 1 to 10?</t>
+  </si>
+  <si>
+    <t>ec9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can (name) pick up a small object with two fingers, like a stick or a rock from </t>
+  </si>
+  <si>
+    <t>ec10</t>
+  </si>
+  <si>
+    <t>Is (name) sometimes too sick to play?</t>
+  </si>
+  <si>
+    <t>ec11</t>
+  </si>
+  <si>
+    <t>Does (name) follow simple directions on how to do something correctly?</t>
+  </si>
+  <si>
+    <t>ec12</t>
+  </si>
+  <si>
+    <t>When given something to do, is (name) able to do it independently?</t>
+  </si>
+  <si>
+    <t>ec13</t>
+  </si>
+  <si>
+    <t>Does (name) get along well with other children?</t>
+  </si>
+  <si>
+    <t>ec14</t>
+  </si>
+  <si>
+    <t>Does (name) kick, bite, or hit other children or adults?</t>
+  </si>
+  <si>
+    <t>ec15</t>
+  </si>
+  <si>
+    <t>Does (name) get distracted easily?</t>
+  </si>
+  <si>
+    <t>Panel B: Children at 3-years-old</t>
   </si>
   <si>
     <t>Cronbachs Alpha</t>
@@ -781,27 +931,27 @@
         <v>48</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" ht="15" thickTop="true" x14ac:dyDescent="0.35">
       <c r="C3" s="10" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -811,10 +961,10 @@
     </row>
     <row r="4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1">
         <v>1223</v>
@@ -837,10 +987,10 @@
     </row>
     <row r="5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1">
         <v>1223</v>
@@ -863,10 +1013,10 @@
     </row>
     <row r="6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="C6" s="1">
         <v>1223</v>
@@ -889,10 +1039,10 @@
     </row>
     <row r="7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="C7" s="1">
         <v>1223</v>
@@ -915,10 +1065,10 @@
     </row>
     <row r="8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="C8" s="1">
         <v>1223</v>
@@ -941,10 +1091,10 @@
     </row>
     <row r="9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="C9" s="1">
         <v>1223</v>
@@ -967,10 +1117,10 @@
     </row>
     <row r="10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="C10" s="1">
         <v>1223</v>
@@ -993,10 +1143,10 @@
     </row>
     <row r="11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="C11" s="1">
         <v>1223</v>
@@ -1019,10 +1169,10 @@
     </row>
     <row r="12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="C12" s="1">
         <v>1223</v>
@@ -1045,10 +1195,10 @@
     </row>
     <row r="13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="C13" s="1">
         <v>1223</v>
@@ -1071,7 +1221,7 @@
     </row>
     <row r="14" x14ac:dyDescent="0.35">
       <c r="C14" s="10" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -1081,10 +1231,10 @@
     </row>
     <row r="15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="C15" s="1">
         <v>1293</v>
@@ -1107,10 +1257,10 @@
     </row>
     <row r="16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="C16" s="1">
         <v>1293</v>
@@ -1133,10 +1283,10 @@
     </row>
     <row r="17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="C17" s="1">
         <v>1293</v>
@@ -1159,10 +1309,10 @@
     </row>
     <row r="18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="C18" s="1">
         <v>1293</v>
@@ -1185,10 +1335,10 @@
     </row>
     <row r="19" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="C19" s="1">
         <v>1293</v>
@@ -1211,10 +1361,10 @@
     </row>
     <row r="20" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="C20" s="1">
         <v>1293</v>
@@ -1237,10 +1387,10 @@
     </row>
     <row r="21" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C21" s="1">
         <v>1293</v>
@@ -1263,10 +1413,10 @@
     </row>
     <row r="22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="C22" s="1">
         <v>1293</v>
@@ -1289,10 +1439,10 @@
     </row>
     <row r="23" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="C23" s="1">
         <v>1293</v>
@@ -1315,10 +1465,10 @@
     </row>
     <row r="24" ht="15" thickBot="true" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="C24" s="5">
         <v>1293</v>
@@ -1365,7 +1515,7 @@
   <sheetData>
     <row r="2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="B2" s="11">
         <v>0.44643365055438733</v>
@@ -1373,7 +1523,7 @@
     </row>
     <row r="3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="B3" s="12">
         <v>2517</v>
